--- a/DSA Checklist.xlsx
+++ b/DSA Checklist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>DSA CHECKLIST 2022 (College Questions Only)</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>Next and Previous Smaller Element of Array using Stack</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Linear Queue</t>
+  </si>
+  <si>
+    <t>Circular Queue</t>
+  </si>
+  <si>
+    <t>Double Ended Queue</t>
+  </si>
+  <si>
+    <t>Piroity Queue</t>
   </si>
 </sst>
 </file>
@@ -70,8 +85,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
@@ -129,6 +144,89 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -137,97 +235,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -245,6 +252,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -252,7 +266,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,14 +274,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,25 +303,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,31 +441,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,121 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,22 +497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +536,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -550,39 +584,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,130 +615,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,8 +1090,8 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1" outlineLevelCol="2"/>
@@ -1180,23 +1195,33 @@
     </row>
     <row r="17" ht="22.95" customHeight="1" spans="1:2">
       <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" ht="22.95" customHeight="1" spans="1:2">
       <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" ht="22.95" customHeight="1" spans="1:2">
       <c r="A19" s="4"/>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" ht="22.95" customHeight="1" spans="1:2">
       <c r="A20" s="4"/>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" ht="22.95" customHeight="1" spans="1:2">
       <c r="A21" s="4"/>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" ht="22.95" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>

--- a/DSA Checklist.xlsx
+++ b/DSA Checklist.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>DSA CHECKLIST 2022 (College Questions Only)</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Insertion Sort</t>
   </si>
   <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
     <t>Stack</t>
   </si>
   <si>
@@ -77,6 +80,18 @@
   </si>
   <si>
     <t>Piroity Queue</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Singly Linked List</t>
+  </si>
+  <si>
+    <t>Doubly Linked List</t>
+  </si>
+  <si>
+    <t>Circular Linked List</t>
   </si>
 </sst>
 </file>
@@ -84,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -144,69 +159,68 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,8 +234,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,12 +267,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -265,24 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,17 +512,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,6 +543,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,20 +580,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,21 +609,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,31 +630,31 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -648,97 +663,97 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1088,10 +1103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1" outlineLevelCol="2"/>
@@ -1153,13 +1168,13 @@
     </row>
     <row r="10" ht="22.95" customHeight="1" spans="1:2">
       <c r="A10" s="4"/>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" ht="22.95" customHeight="1" spans="1:2">
       <c r="A11" s="4"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1195,13 +1210,13 @@
     </row>
     <row r="17" ht="22.95" customHeight="1" spans="1:2">
       <c r="A17" s="4"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="22.95" customHeight="1" spans="1:2">
       <c r="A18" s="4"/>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1225,26 +1240,37 @@
     </row>
     <row r="22" ht="22.95" customHeight="1" spans="1:2">
       <c r="A22" s="4"/>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" ht="22.95" customHeight="1" spans="1:2">
       <c r="A23" s="4"/>
-      <c r="B23" s="7"/>
+      <c r="B23" s="8" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" ht="22.95" customHeight="1" spans="1:2">
       <c r="A24" s="4"/>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" ht="22.95" customHeight="1" spans="1:2">
       <c r="A25" s="4"/>
-      <c r="B25" s="9"/>
+      <c r="B25" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" ht="22.95" customHeight="1" spans="1:2">
       <c r="A26" s="4"/>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" ht="22.95" customHeight="1" spans="1:1">
+      <c r="B26" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="22.95" customHeight="1" spans="1:2">
       <c r="A27" s="4"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" ht="22.95" customHeight="1" spans="1:1">
       <c r="A28" s="4"/>
@@ -1257,6 +1283,9 @@
     </row>
     <row r="31" ht="22.95" customHeight="1" spans="1:1">
       <c r="A31" s="4"/>
+    </row>
+    <row r="32" ht="22.95" customHeight="1" spans="1:1">
+      <c r="A32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSA Checklist.xlsx
+++ b/DSA Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\College Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EAC978-45D3-472B-8C20-ED15C3EBD55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E876A3F-B910-4518-9095-71283FE6B84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>DSA CHECKLIST 2022 (College Questions Only)</t>
   </si>
@@ -91,20 +91,56 @@
     <t>Linked List</t>
   </si>
   <si>
-    <t>Singly Linked List</t>
-  </si>
-  <si>
-    <t>Doubly Linked List</t>
-  </si>
-  <si>
-    <t>Circular Linked List</t>
+    <t>Tower Of Hanoi (Recursive)</t>
+  </si>
+  <si>
+    <t>Reverse a Singly Linked List</t>
+  </si>
+  <si>
+    <t>Doubly Linked List (Insertion/Deletion)</t>
+  </si>
+  <si>
+    <t>Circular Linked List (Insertion/Deletion)</t>
+  </si>
+  <si>
+    <t>Singly Linked List (Insertion/Deletion)</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Create Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Traversal (Pr-eorder, In-Order, Post-Order)</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Heap Sort</t>
+  </si>
+  <si>
+    <t>BST (Insertion/Deletion)</t>
+  </si>
+  <si>
+    <t>Extra Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Largest &amp; Smallest Number </t>
+  </si>
+  <si>
+    <t>3.Stack &amp; Queue Implementation By Linked List</t>
+  </si>
+  <si>
+    <t>2.Insert/Delete Element in Middle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +198,49 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Cascadia Code SemiBold"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB Demi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Berlin Sans FB Demi"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -191,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,9 +296,29 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,189 +595,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="113.21875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="99.88671875" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.799999999999997" customHeight="1">
+    <row r="1" spans="1:4" ht="40.799999999999997" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="C1" s="3"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" ht="33" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1">
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="21.6" customHeight="1">
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="21.6" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="22.95" customHeight="1">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="22.95" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="22.95" customHeight="1">
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" ht="22.95" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="22.95" customHeight="1">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="22.95" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="22.95" customHeight="1">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="22.95" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="22.95" customHeight="1">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="22.95" customHeight="1">
       <c r="A10" s="4"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="22.95" customHeight="1">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="22.95" customHeight="1">
       <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" ht="22.95" customHeight="1">
+      <c r="A12" s="4"/>
+      <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" ht="22.95" customHeight="1">
+      <c r="A13" s="4"/>
+      <c r="B13" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="22.95" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="10" t="s">
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="22.95" customHeight="1">
+      <c r="A14" s="4"/>
+      <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="22.95" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="7" t="s">
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="22.95" customHeight="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="22.95" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="22.95" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="22.95" customHeight="1">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="22.95" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="22.95" customHeight="1">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="22.95" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A22" s="4"/>
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7" t="s">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A24" s="4"/>
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="22.95" customHeight="1">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" ht="22.95" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A26" s="4"/>
+      <c r="B26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A29" s="4"/>
+      <c r="B29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="22.95" customHeight="1">
+      <c r="A30" s="4"/>
+      <c r="B30" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A26" s="4"/>
-      <c r="B26" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A27" s="4"/>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:2" ht="22.95" customHeight="1">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:2" ht="22.95" customHeight="1">
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" ht="22.95" customHeight="1">
       <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:2" ht="22.95" customHeight="1">
+      <c r="B31" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:3" ht="22.95" customHeight="1">
       <c r="A32" s="4"/>
+      <c r="B32" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B34" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+    </row>
+    <row r="36" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+    </row>
+    <row r="37" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+    </row>
+    <row r="38" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+    </row>
+    <row r="42" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+    </row>
+    <row r="43" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="44" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+    </row>
+    <row r="45" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+    </row>
+    <row r="46" spans="2:3" ht="19.95" customHeight="1">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSA Checklist.xlsx
+++ b/DSA Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Desktop\College Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E876A3F-B910-4518-9095-71283FE6B84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F6446B-5FDE-4312-9B4B-5BCE717B1801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>DSA CHECKLIST 2022 (College Questions Only)</t>
   </si>
@@ -134,13 +134,16 @@
   </si>
   <si>
     <t>2.Insert/Delete Element in Middle</t>
+  </si>
+  <si>
+    <t>1. Insert at k'th Position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +243,24 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -270,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -320,6 +341,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,91 +734,93 @@
       <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" spans="1:4" ht="22.95" customHeight="1">
       <c r="A15" s="4"/>
       <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="22.95" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" spans="1:3" ht="22.95" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" spans="1:3" ht="22.95" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="22.95" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" spans="1:3" ht="22.95" customHeight="1">
       <c r="A20" s="4"/>
       <c r="B20" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:3" ht="22.95" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="8"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:3" ht="22.95" customHeight="1">
       <c r="A22" s="4"/>
       <c r="B22" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="9"/>
+      <c r="C22" s="18" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="22.95" customHeight="1">
       <c r="A23" s="4"/>
       <c r="B23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="7"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" spans="1:3" ht="22.95" customHeight="1">
       <c r="A24" s="4"/>
       <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" spans="1:3" ht="22.95" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="7"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" spans="1:3" ht="22.95" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" ht="22.95" customHeight="1">
       <c r="A27" s="4"/>
@@ -827,30 +861,30 @@
       <c r="B31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="12"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:3" ht="22.95" customHeight="1">
       <c r="A32" s="4"/>
       <c r="B32" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="24"/>
     </row>
     <row r="33" spans="2:3" ht="19.95" customHeight="1">
       <c r="B33" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="24"/>
     </row>
     <row r="34" spans="2:3" ht="19.95" customHeight="1">
       <c r="B34" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="15"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="2:3" ht="19.95" customHeight="1">
       <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="C35" s="24"/>
     </row>
     <row r="36" spans="2:3" ht="19.95" customHeight="1">
       <c r="B36" s="11"/>
